--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -1,43 +1,209 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E0D27-1601-43D6-A55A-212C0719F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+  <si>
+    <t>Roadmap Item</t>
+  </si>
+  <si>
+    <t>Effort Estimation</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Numbere of Opportunities</t>
+  </si>
+  <si>
+    <t>Opportunities Revenues</t>
+  </si>
+  <si>
+    <t>Other Projected Revenue</t>
+  </si>
+  <si>
+    <t>Total Projected Revunue</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Source of OKR</t>
+  </si>
+  <si>
+    <t>Investment Category</t>
+  </si>
+  <si>
+    <t>API Discovery</t>
+  </si>
+  <si>
+    <t>5 months</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>$500,000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>$1,500,000</t>
+  </si>
+  <si>
+    <t>$1,000,000</t>
+  </si>
+  <si>
+    <t>$2,500,000</t>
+  </si>
+  <si>
+    <t>500%</t>
+  </si>
+  <si>
+    <t>Closed Deals: ABI, KPMG, EY; Negotiation: Deloit; Lead Qualification: Teva</t>
+  </si>
+  <si>
+    <t>Imported from Jira</t>
+  </si>
+  <si>
+    <t>Core Product</t>
+  </si>
+  <si>
+    <t>OWASP Top 10 API #1: BOLA</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>$150,000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>$200,000</t>
+  </si>
+  <si>
+    <t>$400,000</t>
+  </si>
+  <si>
+    <t>267%</t>
+  </si>
+  <si>
+    <t>Negotiation: Deloit, KTU</t>
+  </si>
+  <si>
+    <t>Shift Left: API s in Staging</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>$600,000</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>300%</t>
+  </si>
+  <si>
+    <t>Closed Deals: ABI</t>
+  </si>
+  <si>
+    <t>New Offering</t>
+  </si>
+  <si>
+    <t>OWASP Top 10 API #5: BFLA</t>
+  </si>
+  <si>
+    <t>1 month</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>$300,000</t>
+  </si>
+  <si>
+    <t>$100,000</t>
+  </si>
+  <si>
+    <t>167%</t>
+  </si>
+  <si>
+    <t>Lead Qualification: Teva</t>
+  </si>
+  <si>
+    <t>Speculative Functionality</t>
+  </si>
+  <si>
+    <t>Self service POV</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>$450,000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>Added to Trelliz</t>
+  </si>
+  <si>
+    <t>OWASP Top 10 API #8: Misconfiguration</t>
+  </si>
+  <si>
+    <t>4 month</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>Imported from Monday</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;₪&quot;* #,##0.00_);_(&quot;₪&quot;* \(#,##0.00\);_(&quot;₪&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +233,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,275 +572,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4140625" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Roadmap Item</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Effort Estimation</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Risk</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Estimated Cost</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Numbere of Opportunities</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Opportunities Revenues</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Other Projected Revenue</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Total Projected Revunue</v>
-      </c>
-      <c r="I1" t="str">
-        <v>ROI</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Opportunities</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Source of OKR</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Investment Category</v>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>API Discovery</v>
-      </c>
-      <c r="B2" t="str">
-        <v>5 months</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Med</v>
-      </c>
-      <c r="D2" t="str">
-        <v>$500,000</v>
-      </c>
-      <c r="E2" t="str">
-        <v>5</v>
-      </c>
-      <c r="F2" t="str">
-        <v>$1,500,000</v>
-      </c>
-      <c r="G2" t="str">
-        <v>$1,000,000</v>
-      </c>
-      <c r="H2" t="str">
-        <v>$2,500,000</v>
-      </c>
-      <c r="I2" t="str">
-        <v>500%</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Closed Deals: ABI, KPMG, EY; Negotiation: Deloit; Lead Qualification: Teva</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Imported from Jira</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Core Product</v>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>OWASP Top 10 API #1: BOLA</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2 months</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Low</v>
-      </c>
-      <c r="D3" t="str">
-        <v>$150,000</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2</v>
-      </c>
-      <c r="F3" t="str">
-        <v>$200,000</v>
-      </c>
-      <c r="G3" t="str">
-        <v>$200,000</v>
-      </c>
-      <c r="H3" t="str">
-        <v>$400,000</v>
-      </c>
-      <c r="I3" t="str">
-        <v>267%</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Negotiation: Deloit, KTU</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Imported from Jira</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Core Product</v>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Shift Left: API s in Staging</v>
-      </c>
-      <c r="B4" t="str">
-        <v>3 months</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Low</v>
-      </c>
-      <c r="D4" t="str">
-        <v>$200,000</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <v>$600,000</v>
-      </c>
-      <c r="G4" t="str">
-        <v>$0</v>
-      </c>
-      <c r="H4" t="str">
-        <v>$600,000</v>
-      </c>
-      <c r="I4" t="str">
-        <v>300%</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Closed Deals: ABI</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Imported from Jira</v>
-      </c>
-      <c r="L4" t="str">
-        <v>New Offering</v>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>OWASP Top 10 API #5: BFLA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1 month</v>
-      </c>
-      <c r="C5" t="str">
-        <v>High</v>
-      </c>
-      <c r="D5" t="str">
-        <v>$300,000</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>$400,000</v>
-      </c>
-      <c r="G5" t="str">
-        <v>$100,000</v>
-      </c>
-      <c r="H5" t="str">
-        <v>$500,000</v>
-      </c>
-      <c r="I5" t="str">
-        <v>167%</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Lead Qualification: Teva</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Imported from Jira</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Speculative Functionality</v>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Self service POV</v>
-      </c>
-      <c r="B6" t="str">
-        <v>6 months</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Low</v>
-      </c>
-      <c r="D6" t="str">
-        <v>$450,000</v>
-      </c>
-      <c r="E6" t="str">
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <v>$0</v>
-      </c>
-      <c r="G6" t="str">
-        <v>$200,000</v>
-      </c>
-      <c r="H6" t="str">
-        <v>$200,000</v>
-      </c>
-      <c r="I6" t="str">
-        <v>44%</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Added to Trelliz</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Core Product</v>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>OWASP Top 10 API #8: Misconfiguration</v>
-      </c>
-      <c r="B7" t="str">
-        <v>4 month</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Med</v>
-      </c>
-      <c r="D7" t="str">
-        <v>$400,000</v>
-      </c>
-      <c r="E7" t="str">
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <v>$0</v>
-      </c>
-      <c r="G7" t="str">
-        <v>$100,000</v>
-      </c>
-      <c r="H7" t="str">
-        <v>$100,000</v>
-      </c>
-      <c r="I7" t="str">
-        <v>25%</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Imported from Monday</v>
-      </c>
-      <c r="L7" t="str">
-        <v>New Offering</v>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError sqref="A1:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E0D27-1601-43D6-A55A-212C0719F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B6E0E1-5FFB-486A-BD2D-7FD901609D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,35 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Roadmap Item</t>
   </si>
   <si>
-    <t>Effort Estimation</t>
-  </si>
-  <si>
     <t>Risk</t>
   </si>
   <si>
-    <t>Estimated Cost</t>
-  </si>
-  <si>
     <t>Numbere of Opportunities</t>
   </si>
   <si>
-    <t>Opportunities Revenues</t>
-  </si>
-  <si>
-    <t>Other Projected Revenue</t>
-  </si>
-  <si>
-    <t>Total Projected Revunue</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
     <t>Opportunities</t>
   </si>
   <si>
@@ -61,30 +43,12 @@
     <t>API Discovery</t>
   </si>
   <si>
-    <t>5 months</t>
-  </si>
-  <si>
     <t>Med</t>
   </si>
   <si>
-    <t>$500,000</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>$1,500,000</t>
-  </si>
-  <si>
-    <t>$1,000,000</t>
-  </si>
-  <si>
-    <t>$2,500,000</t>
-  </si>
-  <si>
-    <t>500%</t>
-  </si>
-  <si>
     <t>Closed Deals: ABI, KPMG, EY; Negotiation: Deloit; Lead Qualification: Teva</t>
   </si>
   <si>
@@ -97,48 +61,21 @@
     <t>OWASP Top 10 API #1: BOLA</t>
   </si>
   <si>
-    <t>2 months</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>$150,000</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>$200,000</t>
-  </si>
-  <si>
-    <t>$400,000</t>
-  </si>
-  <si>
-    <t>267%</t>
-  </si>
-  <si>
     <t>Negotiation: Deloit, KTU</t>
   </si>
   <si>
     <t>Shift Left: API s in Staging</t>
   </si>
   <si>
-    <t>3 months</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>$600,000</t>
-  </si>
-  <si>
-    <t>$0</t>
-  </si>
-  <si>
-    <t>300%</t>
-  </si>
-  <si>
     <t>Closed Deals: ABI</t>
   </si>
   <si>
@@ -148,21 +85,9 @@
     <t>OWASP Top 10 API #5: BFLA</t>
   </si>
   <si>
-    <t>1 month</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>$300,000</t>
-  </si>
-  <si>
-    <t>$100,000</t>
-  </si>
-  <si>
-    <t>167%</t>
-  </si>
-  <si>
     <t>Lead Qualification: Teva</t>
   </si>
   <si>
@@ -172,31 +97,34 @@
     <t>Self service POV</t>
   </si>
   <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>$450,000</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>44%</t>
-  </si>
-  <si>
     <t>Added to Trelliz</t>
   </si>
   <si>
     <t>OWASP Top 10 API #8: Misconfiguration</t>
   </si>
   <si>
-    <t>4 month</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
     <t>Imported from Monday</t>
+  </si>
+  <si>
+    <t>Effort Estimation (months)</t>
+  </si>
+  <si>
+    <t>Estimated Cost ($)</t>
+  </si>
+  <si>
+    <t>Opportunities Revenues ($)</t>
+  </si>
+  <si>
+    <t>Other Projected Revenue ($)</t>
+  </si>
+  <si>
+    <t>Total Projected Revunue ($)</t>
+  </si>
+  <si>
+    <t>ROI (%)</t>
   </si>
 </sst>
 </file>
@@ -232,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,289 +505,289 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" customWidth="1"/>
     <col min="3" max="3" width="8.4140625" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" customWidth="1"/>
     <col min="10" max="10" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2">
+        <v>500000</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3">
+        <v>150000</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I3">
+        <v>267</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>200000</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F4" s="1">
+        <v>600000</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D5">
+        <v>300000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>400000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="I5">
+        <v>167</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>450000</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>400000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 E1 E2 E3 E4 E5 E6 E7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B6E0E1-5FFB-486A-BD2D-7FD901609D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F459F26-9B5F-4CB1-8962-14EA0835B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>Numbere of Opportunities</t>
-  </si>
-  <si>
     <t>Opportunities</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>ROI (%)</t>
+  </si>
+  <si>
+    <t>Number of Opportunities</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -529,54 +529,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>500000</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>1500000</v>
@@ -591,30 +591,30 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>150000</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>200000</v>
@@ -629,30 +629,30 @@
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>200000</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>600000</v>
@@ -667,30 +667,30 @@
         <v>300</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>300000</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>400000</v>
@@ -705,30 +705,30 @@
         <v>167</v>
       </c>
       <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>450000</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -743,27 +743,27 @@
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>400000</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 E1 E2 E3 E4 E5 E6 E7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 E2 E3 E4 E5 E6 E7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F459F26-9B5F-4CB1-8962-14EA0835B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA28FBD-7BDF-4D5A-B16B-F0F4087FF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Roadmap Item</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Med</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Closed Deals: ABI, KPMG, EY; Negotiation: Deloit; Lead Qualification: Teva</t>
   </si>
   <si>
@@ -61,18 +58,12 @@
     <t>Low</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Negotiation: Deloit, KTU</t>
   </si>
   <si>
     <t>Shift Left: API s in Staging</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Closed Deals: ABI</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
   </si>
   <si>
     <t>Self service POV</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Added to Trelliz</t>
@@ -505,7 +493,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -529,28 +517,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -575,8 +563,8 @@
       <c r="D2">
         <v>500000</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2">
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>1500000</v>
@@ -591,30 +579,30 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>150000</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>200000</v>
@@ -629,30 +617,30 @@
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>200000</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>600000</v>
@@ -667,30 +655,30 @@
         <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>300000</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>400000</v>
@@ -705,30 +693,30 @@
         <v>167</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>450000</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -743,15 +731,15 @@
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -762,8 +750,8 @@
       <c r="D7">
         <v>400000</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -778,16 +766,16 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 E2 E3 E4 E5 E6 E7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA28FBD-7BDF-4D5A-B16B-F0F4087FF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F115E4-D36D-4ADD-AA42-2BF05C6CB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,13 +106,13 @@
     <t>Other Projected Revenue ($)</t>
   </si>
   <si>
-    <t>Total Projected Revunue ($)</t>
-  </si>
-  <si>
     <t>ROI (%)</t>
   </si>
   <si>
     <t>Number of Opportunities</t>
+  </si>
+  <si>
+    <t>Total Projected Revenue ($)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -526,7 +526,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -535,10 +535,10 @@
         <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>

--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F115E4-D36D-4ADD-AA42-2BF05C6CB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38AE0F-B445-42CB-B984-0A1F3DFC6BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +775,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 J1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 K1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38AE0F-B445-42CB-B984-0A1F3DFC6BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6966F3-FE30-4477-8E0F-D78E12668B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/data/roadmap_roadmap_okrs.xlsx
+++ b/assets/data/roadmap_roadmap_okrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\samb\src\cpto_demo_asstes\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6966F3-FE30-4477-8E0F-D78E12668B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F7BB2-D9B2-488F-9619-85B3B841DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
-    <t>Roadmap Item</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Opportunities</t>
-  </si>
-  <si>
-    <t>Source of OKR</t>
-  </si>
-  <si>
-    <t>Investment Category</t>
-  </si>
-  <si>
     <t>API Discovery</t>
   </si>
   <si>
@@ -94,25 +79,52 @@
     <t>Imported from Monday</t>
   </si>
   <si>
-    <t>Effort Estimation (months)</t>
-  </si>
-  <si>
-    <t>Estimated Cost ($)</t>
-  </si>
-  <si>
-    <t>Opportunities Revenues ($)</t>
-  </si>
-  <si>
-    <t>Other Projected Revenue ($)</t>
-  </si>
-  <si>
-    <t>ROI (%)</t>
-  </si>
-  <si>
-    <t>Number of Opportunities</t>
-  </si>
-  <si>
-    <t>Total Projected Revenue ($)</t>
+    <t>Effort Estimation
+(months)</t>
+  </si>
+  <si>
+    <t>Estimated Cost
+(K$)</t>
+  </si>
+  <si>
+    <t>Opportunities Revenues
+(K$)</t>
+  </si>
+  <si>
+    <t>Other Projected Revenue
+(K$)</t>
+  </si>
+  <si>
+    <t>Total Projected Revenue
+(K$)</t>
+  </si>
+  <si>
+    <t>ROI
+(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Opportunities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opportunities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of OKR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Category
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadmap Item
+</t>
   </si>
 </sst>
 </file>
@@ -148,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,19 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.4140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.4140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" customWidth="1"/>
     <col min="10" max="10" width="62.1640625" bestFit="1" customWidth="1"/>
@@ -512,208 +525,208 @@
     <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1500000</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="1">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1">
-        <v>2500000</v>
+        <v>2500</v>
       </c>
       <c r="I2">
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>150000</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="I3">
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>600000</v>
+        <v>600</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>600000</v>
+        <v>600</v>
       </c>
       <c r="I4">
         <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>300000</v>
+        <v>300</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>500000</v>
+        <v>500</v>
       </c>
       <c r="I5">
         <v>167</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>450000</v>
+        <v>450</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,33 +735,33 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="I6">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -757,25 +770,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A1 C1 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 K1:L1 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A2 C2 A3 C3 A4 C4 A5 C5 A6 C6 C7 J2:L2 J3:L3 J4:L4 J5:L5 J6:L6 J7:L7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>